--- a/Wind turbines inventories.xlsx
+++ b/Wind turbines inventories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\LCA_WIND_DK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiji\Desktop\mycode\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACFCF47-A912-4920-9144-FB5768C922F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-16320" yWindow="-7365" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -23,10 +24,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'30kW'!$A$1:$H$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$G$303</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -344,9 +354,6 @@
     <t>Market name</t>
   </si>
   <si>
-    <t>ecoinvent 3.3 cutoff</t>
-  </si>
-  <si>
     <t>market for diesel, burned in building machine</t>
   </si>
   <si>
@@ -445,11 +452,14 @@
   <si>
     <t>market for electricity, high voltage</t>
   </si>
+  <si>
+    <t>ecoinvent 3.5_cutoff_ecoSpold02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,11 +823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,6 +839,7 @@
     <col min="5" max="5" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,10 +896,10 @@
         <v>5310</v>
       </c>
       <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -914,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -943,10 +954,10 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,10 +983,10 @@
         <v>14.7</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1001,10 +1012,10 @@
         <v>736.5</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1030,10 +1041,10 @@
         <v>317</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1059,10 +1070,10 @@
         <v>575</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1088,10 +1099,10 @@
         <v>5299</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1117,10 +1128,10 @@
         <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1146,10 +1157,10 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1175,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1204,10 +1215,10 @@
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1233,10 +1244,10 @@
         <v>12.04</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1263,10 +1274,10 @@
         <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1292,10 +1303,10 @@
         <v>3.15</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1322,10 +1333,10 @@
         <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1351,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1380,10 +1391,10 @@
         <v>51040</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1409,10 +1420,10 @@
         <v>2367</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1438,10 +1449,10 @@
         <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1467,10 +1478,10 @@
         <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,10 +1507,10 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1525,10 +1536,10 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1554,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1583,10 +1594,10 @@
         <v>23.2</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1612,10 +1623,10 @@
         <v>2367</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1786,10 +1797,10 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1815,10 +1826,10 @@
         <v>3.15</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1844,10 +1855,10 @@
         <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1873,10 +1884,10 @@
         <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1902,10 +1913,10 @@
         <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1931,10 +1942,10 @@
         <v>154</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1960,10 +1971,10 @@
         <v>14.7</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,10 +2000,10 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2018,10 +2029,10 @@
         <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2047,10 +2058,10 @@
         <v>240</v>
       </c>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2076,10 +2087,10 @@
         <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2105,10 +2116,10 @@
         <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2134,10 +2145,10 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2163,10 +2174,10 @@
         <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2192,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2221,10 +2232,10 @@
         <v>146</v>
       </c>
       <c r="H48" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2250,10 +2261,10 @@
         <v>138</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2279,10 +2290,10 @@
         <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2308,10 +2319,10 @@
         <v>5299</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2337,10 +2348,10 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2366,10 +2377,10 @@
         <v>220</v>
       </c>
       <c r="H53" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2395,10 +2406,10 @@
         <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2424,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2453,10 +2464,10 @@
         <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2482,10 +2493,10 @@
         <v>220</v>
       </c>
       <c r="H57" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2511,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2540,10 +2551,10 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2569,10 +2580,10 @@
         <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2598,10 +2609,10 @@
         <v>0.5</v>
       </c>
       <c r="H61" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2627,10 +2638,10 @@
         <v>12.04</v>
       </c>
       <c r="H62" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2656,10 +2667,10 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2685,10 +2696,10 @@
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2714,10 +2725,10 @@
         <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2743,10 +2754,10 @@
         <v>200</v>
       </c>
       <c r="H66" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2772,10 +2783,10 @@
         <v>2500</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2801,10 +2812,10 @@
         <v>62</v>
       </c>
       <c r="H68" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2830,10 +2841,10 @@
         <v>379</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2859,10 +2870,10 @@
         <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2888,10 +2899,10 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2917,10 +2928,10 @@
         <v>624</v>
       </c>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2946,10 +2957,10 @@
         <v>480</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2975,10 +2986,10 @@
         <v>283</v>
       </c>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3004,10 +3015,10 @@
         <v>739</v>
       </c>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3033,10 +3044,10 @@
         <v>70.599999999999994</v>
       </c>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3062,10 +3073,10 @@
         <v>81</v>
       </c>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3091,10 +3102,10 @@
         <v>154</v>
       </c>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3120,10 +3131,10 @@
         <v>1152</v>
       </c>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3149,10 +3160,10 @@
         <v>288</v>
       </c>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3178,10 +3189,10 @@
         <v>235</v>
       </c>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3207,10 +3218,10 @@
         <v>86</v>
       </c>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,10 +3247,10 @@
         <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3265,10 +3276,10 @@
         <v>57</v>
       </c>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3294,10 +3305,10 @@
         <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3323,10 +3334,10 @@
         <v>70.599999999999994</v>
       </c>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -3352,10 +3363,10 @@
         <v>3534</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3381,10 +3392,10 @@
         <v>1521</v>
       </c>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3410,10 +3421,10 @@
         <v>3987</v>
       </c>
       <c r="H89" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3439,10 +3450,10 @@
         <v>15019</v>
       </c>
       <c r="H90" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3468,10 +3479,10 @@
         <v>95</v>
       </c>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3497,10 +3508,10 @@
         <v>15019</v>
       </c>
       <c r="H92" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3526,10 +3537,10 @@
         <v>115</v>
       </c>
       <c r="H93" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -3555,10 +3566,10 @@
         <v>190</v>
       </c>
       <c r="H94" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3584,10 +3595,10 @@
         <v>23.2</v>
       </c>
       <c r="H95" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3613,10 +3624,10 @@
         <v>2367</v>
       </c>
       <c r="H96" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3788,10 +3799,10 @@
         <v>5310</v>
       </c>
       <c r="H102" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" t="s">
         <v>103</v>
-      </c>
-      <c r="I102" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3817,10 +3828,10 @@
         <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3847,10 +3858,10 @@
         <v>168</v>
       </c>
       <c r="H104" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3876,10 +3887,10 @@
         <v>200</v>
       </c>
       <c r="H105" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3906,10 +3917,10 @@
         <v>2500</v>
       </c>
       <c r="H106" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -3935,10 +3946,10 @@
         <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3965,10 +3976,10 @@
         <v>288</v>
       </c>
       <c r="H108" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3994,10 +4005,10 @@
         <v>57</v>
       </c>
       <c r="H109" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -4023,10 +4034,10 @@
         <v>51040</v>
       </c>
       <c r="H110" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -4052,10 +4063,10 @@
         <v>2367</v>
       </c>
       <c r="H111" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -4081,10 +4092,10 @@
         <v>220</v>
       </c>
       <c r="H112" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -4110,10 +4121,10 @@
         <v>219</v>
       </c>
       <c r="H113" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -4139,10 +4150,10 @@
         <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4168,10 +4179,10 @@
         <v>158</v>
       </c>
       <c r="H115" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -4197,10 +4208,10 @@
         <v>220</v>
       </c>
       <c r="H116" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -4226,10 +4237,10 @@
         <v>219</v>
       </c>
       <c r="H117" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -4255,10 +4266,10 @@
         <v>158</v>
       </c>
       <c r="H118" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -4284,10 +4295,10 @@
         <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -4313,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -4342,10 +4353,10 @@
         <v>0.5</v>
       </c>
       <c r="H121" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -4371,10 +4382,10 @@
         <v>63</v>
       </c>
       <c r="H122" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -4400,10 +4411,10 @@
         <v>0.5</v>
       </c>
       <c r="H123" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4429,10 +4440,10 @@
         <v>12.04</v>
       </c>
       <c r="H124" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -4458,10 +4469,10 @@
         <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -4487,10 +4498,10 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -4516,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -4545,10 +4556,10 @@
         <v>63</v>
       </c>
       <c r="H128" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I128" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4574,10 +4585,10 @@
         <v>12.04</v>
       </c>
       <c r="H129" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4603,10 +4614,10 @@
         <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4661,10 +4672,10 @@
         <v>5800</v>
       </c>
       <c r="H132" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4690,10 +4701,10 @@
         <v>3900</v>
       </c>
       <c r="H133" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4719,10 +4730,10 @@
         <v>4200</v>
       </c>
       <c r="H134" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4748,10 +4759,10 @@
         <v>1800</v>
       </c>
       <c r="H135" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4777,10 +4788,10 @@
         <v>251</v>
       </c>
       <c r="H136" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4806,10 +4817,10 @@
         <v>251</v>
       </c>
       <c r="H137" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4835,10 +4846,10 @@
         <v>2000</v>
       </c>
       <c r="H138" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I138" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -4864,10 +4875,10 @@
         <v>2000</v>
       </c>
       <c r="H139" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4893,10 +4904,10 @@
         <v>100</v>
       </c>
       <c r="H140" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4922,10 +4933,10 @@
         <v>816</v>
       </c>
       <c r="H141" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4951,10 +4962,10 @@
         <v>2142</v>
       </c>
       <c r="H142" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4980,10 +4991,10 @@
         <v>204</v>
       </c>
       <c r="H143" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -5009,10 +5020,10 @@
         <v>238</v>
       </c>
       <c r="H144" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -5038,10 +5049,10 @@
         <v>150</v>
       </c>
       <c r="H145" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -5067,10 +5078,10 @@
         <v>8337</v>
       </c>
       <c r="H146" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -5096,10 +5107,10 @@
         <v>1261</v>
       </c>
       <c r="H147" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -5125,10 +5136,10 @@
         <v>850</v>
       </c>
       <c r="H148" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -5154,10 +5165,10 @@
         <v>300</v>
       </c>
       <c r="H149" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -5183,10 +5194,10 @@
         <v>200</v>
       </c>
       <c r="H150" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -5212,10 +5223,10 @@
         <v>500</v>
       </c>
       <c r="H151" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -5241,10 +5252,10 @@
         <v>50.4</v>
       </c>
       <c r="H152" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -5270,10 +5281,10 @@
         <v>238</v>
       </c>
       <c r="H153" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -5299,10 +5310,10 @@
         <v>204</v>
       </c>
       <c r="H154" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I154" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -5328,10 +5339,10 @@
         <v>17780</v>
       </c>
       <c r="H155" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I155" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -5357,10 +5368,10 @@
         <v>9917</v>
       </c>
       <c r="H156" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I156" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -5386,10 +5397,10 @@
         <v>17510</v>
       </c>
       <c r="H157" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -5415,10 +5426,10 @@
         <v>38900</v>
       </c>
       <c r="H158" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5444,10 +5455,10 @@
         <v>144</v>
       </c>
       <c r="H159" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -5473,10 +5484,10 @@
         <v>38900</v>
       </c>
       <c r="H160" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I160" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -5502,10 +5513,10 @@
         <v>152</v>
       </c>
       <c r="H161" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I161" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -5531,10 +5542,10 @@
         <v>81.8</v>
       </c>
       <c r="H162" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -5560,10 +5571,10 @@
         <v>11200</v>
       </c>
       <c r="H163" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I163" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -5735,10 +5746,10 @@
         <v>27000</v>
       </c>
       <c r="H169" t="s">
+        <v>136</v>
+      </c>
+      <c r="I169" t="s">
         <v>103</v>
-      </c>
-      <c r="I169" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -5764,10 +5775,10 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -5794,10 +5805,10 @@
         <v>850</v>
       </c>
       <c r="H171" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I171" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -5823,10 +5834,10 @@
         <v>200</v>
       </c>
       <c r="H172" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -5853,10 +5864,10 @@
         <v>5880</v>
       </c>
       <c r="H173" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5883,10 +5894,10 @@
         <v>1702</v>
       </c>
       <c r="H174" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I174" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -5912,10 +5923,10 @@
         <v>50.4</v>
       </c>
       <c r="H175" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -5941,10 +5952,10 @@
         <v>197690</v>
       </c>
       <c r="H176" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -5970,10 +5981,10 @@
         <v>11200</v>
       </c>
       <c r="H177" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I177" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -5999,10 +6010,10 @@
         <v>220</v>
       </c>
       <c r="H178" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J178">
         <f>G178/SUM(G178:G181)</f>
@@ -6032,10 +6043,10 @@
         <v>219</v>
       </c>
       <c r="H179" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I179" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6061,10 +6072,10 @@
         <v>20</v>
       </c>
       <c r="H180" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6090,10 +6101,10 @@
         <v>158</v>
       </c>
       <c r="H181" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6119,10 +6130,10 @@
         <v>220</v>
       </c>
       <c r="H182" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6148,10 +6159,10 @@
         <v>219</v>
       </c>
       <c r="H183" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I183" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6177,10 +6188,10 @@
         <v>158</v>
       </c>
       <c r="H184" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6206,10 +6217,10 @@
         <v>20</v>
       </c>
       <c r="H185" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I185" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6235,10 +6246,10 @@
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I186" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -6264,10 +6275,10 @@
         <v>0.5</v>
       </c>
       <c r="H187" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I187" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6293,10 +6304,10 @@
         <v>63</v>
       </c>
       <c r="H188" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I188" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6322,10 +6333,10 @@
         <v>0.5</v>
       </c>
       <c r="H189" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6351,10 +6362,10 @@
         <v>12.04</v>
       </c>
       <c r="H190" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I190" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -6380,10 +6391,10 @@
         <v>27</v>
       </c>
       <c r="H191" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I191" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6409,10 +6420,10 @@
         <v>6</v>
       </c>
       <c r="H192" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I192" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -6438,10 +6449,10 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I193" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -6467,10 +6478,10 @@
         <v>63</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I194" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -6496,10 +6507,10 @@
         <v>12.04</v>
       </c>
       <c r="H195" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I195" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -6525,10 +6536,10 @@
         <v>27</v>
       </c>
       <c r="H196" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I196" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -6554,10 +6565,10 @@
         <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -6583,10 +6594,10 @@
         <v>8400</v>
       </c>
       <c r="H198" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I198" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -6612,10 +6623,10 @@
         <v>3100</v>
       </c>
       <c r="H199" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I199" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -6641,10 +6652,10 @@
         <v>3200</v>
       </c>
       <c r="H200" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -6670,10 +6681,10 @@
         <v>3100</v>
       </c>
       <c r="H201" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I201" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -6699,10 +6710,10 @@
         <v>251</v>
       </c>
       <c r="H202" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -6728,10 +6739,10 @@
         <v>251</v>
       </c>
       <c r="H203" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I203" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -6757,10 +6768,10 @@
         <v>2200</v>
       </c>
       <c r="H204" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I204" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -6786,10 +6797,10 @@
         <v>2200</v>
       </c>
       <c r="H205" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I205" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -6815,10 +6826,10 @@
         <v>100</v>
       </c>
       <c r="H206" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I206" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -6844,10 +6855,10 @@
         <v>828</v>
       </c>
       <c r="H207" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I207" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -6873,10 +6884,10 @@
         <v>2173</v>
       </c>
       <c r="H208" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -6902,10 +6913,10 @@
         <v>207</v>
       </c>
       <c r="H209" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I209" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -6931,10 +6942,10 @@
         <v>242</v>
       </c>
       <c r="H210" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I210" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -6960,10 +6971,10 @@
         <v>150</v>
       </c>
       <c r="H211" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I211" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -6989,10 +7000,10 @@
         <v>5652</v>
       </c>
       <c r="H212" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I212" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -7018,10 +7029,10 @@
         <v>1261</v>
       </c>
       <c r="H213" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I213" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -7047,10 +7058,10 @@
         <v>585</v>
       </c>
       <c r="H214" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I214" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -7076,10 +7087,10 @@
         <v>300</v>
       </c>
       <c r="H215" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I215" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -7105,10 +7116,10 @@
         <v>200</v>
       </c>
       <c r="H216" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I216" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -7134,10 +7145,10 @@
         <v>500</v>
       </c>
       <c r="H217" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I217" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -7163,10 +7174,10 @@
         <v>58.8</v>
       </c>
       <c r="H218" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I218" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7192,10 +7203,10 @@
         <v>242</v>
       </c>
       <c r="H219" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I219" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -7221,10 +7232,10 @@
         <v>207</v>
       </c>
       <c r="H220" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I220" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -7250,10 +7261,10 @@
         <v>14404</v>
       </c>
       <c r="H221" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I221" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7279,10 +7290,10 @@
         <v>10164</v>
       </c>
       <c r="H222" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I222" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -7308,10 +7319,10 @@
         <v>17510</v>
       </c>
       <c r="H223" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -7337,10 +7348,10 @@
         <v>69375</v>
       </c>
       <c r="H224" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I224" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -7366,10 +7377,10 @@
         <v>360</v>
       </c>
       <c r="H225" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I225" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -7395,10 +7406,10 @@
         <v>69375</v>
       </c>
       <c r="H226" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -7424,10 +7435,10 @@
         <v>190</v>
       </c>
       <c r="H227" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -7453,10 +7464,10 @@
         <v>102</v>
       </c>
       <c r="H228" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I228" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7482,10 +7493,10 @@
         <v>14400</v>
       </c>
       <c r="H229" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I229" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7657,10 +7668,10 @@
         <v>29250</v>
       </c>
       <c r="H235" t="s">
+        <v>136</v>
+      </c>
+      <c r="I235" t="s">
         <v>103</v>
-      </c>
-      <c r="I235" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -7686,10 +7697,10 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7716,10 +7727,10 @@
         <v>1260</v>
       </c>
       <c r="H237" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I237" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -7746,10 +7757,10 @@
         <v>1000</v>
       </c>
       <c r="H238" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I238" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -7776,10 +7787,10 @@
         <v>8400</v>
       </c>
       <c r="H239" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I239" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -7806,10 +7817,10 @@
         <v>1361</v>
       </c>
       <c r="H240" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I240" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -7835,10 +7846,10 @@
         <v>58.8</v>
       </c>
       <c r="H241" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I241" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -7864,10 +7875,10 @@
         <v>224400</v>
       </c>
       <c r="H242" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I242" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -7893,10 +7904,10 @@
         <v>14000</v>
       </c>
       <c r="H243" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I243" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -7922,10 +7933,10 @@
         <v>220</v>
       </c>
       <c r="H244" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I244" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -7951,10 +7962,10 @@
         <v>219</v>
       </c>
       <c r="H245" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I245" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -7980,10 +7991,10 @@
         <v>20</v>
       </c>
       <c r="H246" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I246" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -8009,10 +8020,10 @@
         <v>158</v>
       </c>
       <c r="H247" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I247" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -8038,10 +8049,10 @@
         <v>220</v>
       </c>
       <c r="H248" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I248" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -8067,10 +8078,10 @@
         <v>219</v>
       </c>
       <c r="H249" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I249" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,10 +8107,10 @@
         <v>158</v>
       </c>
       <c r="H250" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I250" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -8125,10 +8136,10 @@
         <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I251" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -8154,10 +8165,10 @@
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I252" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -8183,10 +8194,10 @@
         <v>0.5</v>
       </c>
       <c r="H253" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I253" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -8212,10 +8223,10 @@
         <v>63</v>
       </c>
       <c r="H254" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I254" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -8241,10 +8252,10 @@
         <v>0.5</v>
       </c>
       <c r="H255" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I255" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -8270,10 +8281,10 @@
         <v>12.04</v>
       </c>
       <c r="H256" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I256" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -8299,10 +8310,10 @@
         <v>27</v>
       </c>
       <c r="H257" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I257" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -8328,10 +8339,10 @@
         <v>6</v>
       </c>
       <c r="H258" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I258" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -8357,10 +8368,10 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I259" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -8386,10 +8397,10 @@
         <v>63</v>
       </c>
       <c r="H260" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I260" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -8415,10 +8426,10 @@
         <v>12.04</v>
       </c>
       <c r="H261" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I261" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -8444,10 +8455,10 @@
         <v>27</v>
       </c>
       <c r="H262" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I262" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -8473,10 +8484,10 @@
         <v>6</v>
       </c>
       <c r="H263" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I263" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -8502,10 +8513,10 @@
         <v>29714</v>
       </c>
       <c r="H264" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -8531,10 +8542,10 @@
         <v>10966</v>
       </c>
       <c r="H265" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I265" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -8560,10 +8571,10 @@
         <v>11320</v>
       </c>
       <c r="H266" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I266" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -8589,10 +8600,10 @@
         <v>12661</v>
       </c>
       <c r="H267" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I267" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -8618,10 +8629,10 @@
         <v>1025</v>
       </c>
       <c r="H268" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -8647,10 +8658,10 @@
         <v>1025</v>
       </c>
       <c r="H269" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I269" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -8676,10 +8687,10 @@
         <v>9139</v>
       </c>
       <c r="H270" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I270" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -8705,10 +8716,10 @@
         <v>9139</v>
       </c>
       <c r="H271" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I271" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -8734,10 +8745,10 @@
         <v>100</v>
       </c>
       <c r="H272" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I272" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -8763,10 +8774,10 @@
         <v>3382</v>
       </c>
       <c r="H273" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I273" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -8792,10 +8803,10 @@
         <v>8877</v>
       </c>
       <c r="H274" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I274" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -8821,10 +8832,10 @@
         <v>845</v>
       </c>
       <c r="H275" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I275" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -8850,10 +8861,10 @@
         <v>986</v>
       </c>
       <c r="H276" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I276" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -8879,10 +8890,10 @@
         <v>613</v>
       </c>
       <c r="H277" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I277" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -8908,10 +8919,10 @@
         <v>16940</v>
       </c>
       <c r="H278" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I278" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -8937,10 +8948,10 @@
         <v>11294</v>
       </c>
       <c r="H279" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I279" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -8966,10 +8977,10 @@
         <v>2389</v>
       </c>
       <c r="H280" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -8995,10 +9006,10 @@
         <v>1225</v>
       </c>
       <c r="H281" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I281" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -9024,10 +9035,10 @@
         <v>816</v>
       </c>
       <c r="H282" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I282" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -9053,10 +9064,10 @@
         <v>2042</v>
       </c>
       <c r="H283" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I283" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -9082,10 +9093,10 @@
         <v>150</v>
       </c>
       <c r="H284" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I284" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -9111,10 +9122,10 @@
         <v>1586</v>
       </c>
       <c r="H285" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I285" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -9140,10 +9151,10 @@
         <v>845</v>
       </c>
       <c r="H286" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I286" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -9169,10 +9180,10 @@
         <v>51643</v>
       </c>
       <c r="H287" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I287" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -9198,10 +9209,10 @@
         <v>42216</v>
       </c>
       <c r="H288" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I288" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -9227,10 +9238,10 @@
         <v>67500</v>
       </c>
       <c r="H289" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -9256,10 +9267,10 @@
         <v>113210</v>
       </c>
       <c r="H290" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I290" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -9285,10 +9296,10 @@
         <v>547</v>
       </c>
       <c r="H291" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I291" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -9314,10 +9325,10 @@
         <v>113210</v>
       </c>
       <c r="H292" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I292" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -9343,10 +9354,10 @@
         <v>228</v>
       </c>
       <c r="H293" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I293" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -9373,10 +9384,10 @@
         <v>29741</v>
       </c>
       <c r="H294" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I294" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -9403,10 +9414,10 @@
         <v>11349</v>
       </c>
       <c r="H295" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I295" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -9432,10 +9443,10 @@
         <v>150</v>
       </c>
       <c r="H296" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I296" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -9461,10 +9472,10 @@
         <v>1500</v>
       </c>
       <c r="H297" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I297" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -9490,10 +9501,10 @@
         <v>600</v>
       </c>
       <c r="H298" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I298" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -9519,10 +9530,10 @@
         <v>800</v>
       </c>
       <c r="H299" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I299" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -9548,10 +9559,10 @@
         <v>1000</v>
       </c>
       <c r="H300" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I300" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -9577,10 +9588,10 @@
         <v>1000</v>
       </c>
       <c r="H301" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I301" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -9607,21 +9618,21 @@
         <v>3150</v>
       </c>
       <c r="H302" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="I302" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G303"/>
+  <autoFilter ref="A1:G303" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -10994,12 +11005,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H40">
-    <sortState ref="A2:H40">
+  <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
       <sortCondition ref="A2:A40"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:H66">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
     <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11007,7 +11018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -12381,7 +12392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -13848,7 +13859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -15320,7 +15331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
